--- a/2019-01-12 15-08-15_plot_stats/latest_block_timestamp.xlsx
+++ b/2019-01-12 15-08-15_plot_stats/latest_block_timestamp.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Blockchain-Simulator\2019-01-12 15-08-15_plot_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A82093D-FFC8-4890-9880-90B2E7778C7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC1F4A3-AFA7-4D46-82FD-58DB88C5C7A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="latest_block_timestamp" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">latest_block_timestamp!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">latest_block_timestamp!$D$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">latest_block_timestamp!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">latest_block_timestamp!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">latest_block_timestamp!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">latest_block_timestamp!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">latest_block_timestamp!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">latest_block_timestamp!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">latest_block_timestamp!$J$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">latest_block_timestamp!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">latest_block_timestamp!$M$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">latest_block_timestamp!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">latest_block_timestamp!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">latest_block_timestamp!$P$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">latest_block_timestamp!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">latest_block_timestamp!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">latest_block_timestamp!$D$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">latest_block_timestamp!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">latest_block_timestamp!$G$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">latest_block_timestamp!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">latest_block_timestamp!$J$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">latest_block_timestamp!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">latest_block_timestamp!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">latest_block_timestamp!$G$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">latest_block_timestamp!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">latest_block_timestamp!$P$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">latest_block_timestamp!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">latest_block_timestamp!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">latest_block_timestamp!$J$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">latest_block_timestamp!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">latest_block_timestamp!$M$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">latest_block_timestamp!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">latest_block_timestamp!$P$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>contact freq</t>
   </si>
@@ -115,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4261,8 +4296,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4279,17 +4315,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -4391,7 +4425,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63CB-4EE0-B9E3-B9DA218B5835}"/>
@@ -4413,17 +4446,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -4525,7 +4556,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-63CB-4EE0-B9E3-B9DA218B5835}"/>
@@ -4547,17 +4577,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -4659,7 +4687,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-63CB-4EE0-B9E3-B9DA218B5835}"/>
@@ -4681,17 +4708,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -4793,7 +4818,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-63CB-4EE0-B9E3-B9DA218B5835}"/>
@@ -4815,17 +4839,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -4927,7 +4949,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-63CB-4EE0-B9E3-B9DA218B5835}"/>
@@ -4942,10 +4963,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="193871344"/>
         <c:axId val="318000544"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="193871344"/>
         <c:scaling>
@@ -5213,8 +5234,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5231,17 +5253,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -5343,7 +5363,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CBBD-4A46-A7B6-9E188FEC8D1A}"/>
@@ -5365,17 +5384,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -5477,7 +5494,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CBBD-4A46-A7B6-9E188FEC8D1A}"/>
@@ -5499,17 +5515,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -5611,7 +5625,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CBBD-4A46-A7B6-9E188FEC8D1A}"/>
@@ -5633,17 +5646,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -5745,7 +5756,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CBBD-4A46-A7B6-9E188FEC8D1A}"/>
@@ -5767,17 +5777,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -5879,7 +5887,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-CBBD-4A46-A7B6-9E188FEC8D1A}"/>
@@ -5894,10 +5901,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="129572928"/>
         <c:axId val="187913088"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="129572928"/>
         <c:scaling>
@@ -6165,8 +6172,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -6183,17 +6191,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -6295,7 +6301,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DCE6-4740-A733-2A6468D134FA}"/>
@@ -6317,17 +6322,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -6429,7 +6432,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DCE6-4740-A733-2A6468D134FA}"/>
@@ -6451,17 +6453,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -6563,7 +6563,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DCE6-4740-A733-2A6468D134FA}"/>
@@ -6585,17 +6584,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -6697,7 +6694,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DCE6-4740-A733-2A6468D134FA}"/>
@@ -6719,17 +6715,15 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>latest_block_timestamp!$A$2:$A$15</c:f>
@@ -6831,7 +6825,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DCE6-4740-A733-2A6468D134FA}"/>
@@ -6846,10 +6839,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="330926240"/>
         <c:axId val="203423776"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="330926240"/>
         <c:scaling>
@@ -12077,11 +12070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" activeCellId="5" sqref="A1:A1048576 C1:C1048576 F1:F1048576 I1:I1048576 L1:L1048576 O1:O1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
